--- a/Ziad.xlsx
+++ b/Ziad.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ziad\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ziad\Desktop\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70C96518-E125-417A-81AB-38ABA3549EB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE1386B-8705-4038-9C4E-5AB36509BE71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7B015688-E008-4322-9000-B90C0FC39952}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{7B015688-E008-4322-9000-B90C0FC39952}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Current Asset</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>- Casflow from Investment still negative because the company keep increasing Their asset through acquisition</t>
+  </si>
+  <si>
+    <t>damn</t>
   </si>
 </sst>
 </file>
@@ -140,7 +143,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -321,7 +324,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -640,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3374ECEB-32F5-4BD2-9CAF-FA1A940FA02D}">
   <dimension ref="A1:AE30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -935,7 +938,7 @@
         <v>0.20469474436254753</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -948,7 +951,7 @@
         <v>5.1710265708840568E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -960,38 +963,41 @@
         <f>SUM(C5:C6)/C7</f>
         <v>0.53031704633577925</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>32</v>
       </c>

--- a/Ziad.xlsx
+++ b/Ziad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ziad\Desktop\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE1386B-8705-4038-9C4E-5AB36509BE71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F909DF37-E6F7-4B00-B041-7ED86D8B3225}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{7B015688-E008-4322-9000-B90C0FC39952}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Current Asset</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>damn</t>
+  </si>
+  <si>
+    <t>dev ready</t>
   </si>
 </sst>
 </file>
@@ -644,7 +647,7 @@
   <dimension ref="A1:AE30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -967,6 +970,11 @@
         <v>33</v>
       </c>
     </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F19" t="s">
+        <v>34</v>
+      </c>
+    </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
         <v>28</v>
